--- a/Sprint-5/Sprint_5 Burndown-Backlog.xlsx
+++ b/Sprint-5/Sprint_5 Burndown-Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\breno\Downloads\adocao6\Sprint-5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danil\Desktop\Sistemas de Informação\Faculdade\4ºPeríodo\PDS\PROJETO\adocao\Sprint-5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="57">
   <si>
     <t>SPRINT BACKLOG</t>
   </si>
@@ -132,48 +132,6 @@
 27/09/2016</t>
   </si>
   <si>
-    <t>Criação da Classe Candidato</t>
-  </si>
-  <si>
-    <t>Criação Classe Endereço</t>
-  </si>
-  <si>
-    <t>Criação Classe ControllerCandidato</t>
-  </si>
-  <si>
-    <t>Atualização BancoDeDados</t>
-  </si>
-  <si>
-    <t>Tratar Eventos dos Botões do Menu e CadastroCandidato</t>
-  </si>
-  <si>
-    <t>Tratar Eventos dos Campos do CadastroCandidato</t>
-  </si>
-  <si>
-    <t>Criar Formulário de Cadastro</t>
-  </si>
-  <si>
-    <t>Implementar Máscaras nos Campos</t>
-  </si>
-  <si>
-    <t>Armazenar dados do CadastroCandidato no BD</t>
-  </si>
-  <si>
-    <t>Estudo do Modelo de Cascata</t>
-  </si>
-  <si>
-    <t>Estudo Prototipação e Incremental</t>
-  </si>
-  <si>
-    <t>Estudo Modelo RUP</t>
-  </si>
-  <si>
-    <t>Estudo Engenharia de Requisitos</t>
-  </si>
-  <si>
-    <t>Estudo Modelo Espiral e Reuso</t>
-  </si>
-  <si>
     <t>Quarta
 28/09/2016</t>
   </si>
@@ -200,30 +158,6 @@
   <si>
     <t>Terça
 04/10/2016</t>
-  </si>
-  <si>
-    <t>Quarta
-05/10/2016</t>
-  </si>
-  <si>
-    <t>Quinta
-06/10/2016</t>
-  </si>
-  <si>
-    <t>Sexta
-07/10/2016</t>
-  </si>
-  <si>
-    <t>Sábado
-08/10/2016</t>
-  </si>
-  <si>
-    <t>Domingo
-09/10/2016</t>
-  </si>
-  <si>
-    <t>Segunda
-10/10/2016</t>
   </si>
   <si>
     <t>Terça
@@ -271,6 +205,18 @@
   <si>
     <t>Terça
 18/10/2016</t>
+  </si>
+  <si>
+    <t>O Candidato pode acessar seu cadastro e se for necessário alterar dados incorretos.</t>
+  </si>
+  <si>
+    <t>Tratar o Evento de Alteração de Dados do candidato</t>
+  </si>
+  <si>
+    <t>Busca e Visualização de Dados do Candidato</t>
+  </si>
+  <si>
+    <t>Salvar Alterações no Banco de Dados</t>
   </si>
 </sst>
 </file>
@@ -531,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -622,13 +568,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -640,15 +583,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -656,6 +590,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4343,35 +4286,35 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Terça
-04/10/2016</c:v>
+11/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Quarta
-05/10/2016</c:v>
+12/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Quinta
-06/10/2016</c:v>
+13/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sexta
-07/10/2016</c:v>
+14/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Sábado
-08/10/2016</c:v>
+15/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Domingo
-09/10/2016</c:v>
+16/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Segunda
-10/10/2016</c:v>
+17/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-11/10/2016</c:v>
+18/10/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4383,28 +4326,28 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>8</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>13.125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>11.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>5.625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>3.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.875</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -4476,35 +4419,35 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Terça
-04/10/2016</c:v>
+11/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Quarta
-05/10/2016</c:v>
+12/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Quinta
-06/10/2016</c:v>
+13/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sexta
-07/10/2016</c:v>
+14/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Sábado
-08/10/2016</c:v>
+15/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Domingo
-09/10/2016</c:v>
+16/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Segunda
-10/10/2016</c:v>
+17/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-11/10/2016</c:v>
+18/10/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4516,31 +4459,31 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>8</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.17</c:v>
+                  <c:v>14.33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.51999999999999957</c:v>
+                  <c:v>12.129999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.1700000000000008</c:v>
+                  <c:v>8.8899999999999988</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-7.2900000000000009</c:v>
+                  <c:v>5.7299999999999986</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-12.09</c:v>
+                  <c:v>1.629999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-14.09</c:v>
+                  <c:v>0.32999999999999896</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-16.09</c:v>
+                  <c:v>-0.87000000000000099</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-20.09</c:v>
+                  <c:v>-0.87000000000000099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4854,35 +4797,35 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Terça
-04/10/2016</c:v>
+11/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Quarta
-05/10/2016</c:v>
+12/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Quinta
-06/10/2016</c:v>
+13/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sexta
-07/10/2016</c:v>
+14/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Sábado
-08/10/2016</c:v>
+15/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Domingo
-09/10/2016</c:v>
+16/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Segunda
-10/10/2016</c:v>
+17/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-11/10/2016</c:v>
+18/10/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4894,28 +4837,28 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>21.8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.074999999999999</c:v>
+                  <c:v>6.125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.349999999999998</c:v>
+                  <c:v>5.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.624999999999998</c:v>
+                  <c:v>4.375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.899999999999999</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.1749999999999989</c:v>
+                  <c:v>2.625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.4499999999999993</c:v>
+                  <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7249999999999992</c:v>
+                  <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -4987,35 +4930,35 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Terça
-04/10/2016</c:v>
+11/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Quarta
-05/10/2016</c:v>
+12/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Quinta
-06/10/2016</c:v>
+13/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sexta
-07/10/2016</c:v>
+14/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Sábado
-08/10/2016</c:v>
+15/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Domingo
-09/10/2016</c:v>
+16/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Segunda
-10/10/2016</c:v>
+17/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-11/10/2016</c:v>
+18/10/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5027,31 +4970,31 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>21.8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.97</c:v>
+                  <c:v>6.33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.569999999999999</c:v>
+                  <c:v>5.38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.079999999999998</c:v>
+                  <c:v>4.34</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.629999999999999</c:v>
+                  <c:v>2.8499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.629999999999999</c:v>
+                  <c:v>1.5499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.629999999999999</c:v>
+                  <c:v>0.24999999999999956</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.629999999999999</c:v>
+                  <c:v>-0.9500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.629999999999999</c:v>
+                  <c:v>-0.9500000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5395,28 +5338,28 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>11.5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.0625</c:v>
+                  <c:v>5.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.625</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.1875</c:v>
+                  <c:v>3.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.75</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.3125</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.875</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4375</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -5528,31 +5471,31 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>11.5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.25</c:v>
+                  <c:v>4.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0500000000000007</c:v>
+                  <c:v>2.5499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.3800000000000008</c:v>
+                  <c:v>0.87999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.580000000000001</c:v>
+                  <c:v>-1.92</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.580000000000001</c:v>
+                  <c:v>-1.92</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.580000000000001</c:v>
+                  <c:v>-1.92</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.580000000000001</c:v>
+                  <c:v>-1.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5626,7 +5569,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5717,7 +5659,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -5762,7 +5703,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6711,7 +6651,7 @@
   <dimension ref="A1:AB1048538"/>
   <sheetViews>
     <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6728,16 +6668,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
       <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
@@ -6762,27 +6702,27 @@
       <c r="AB1" s="4"/>
     </row>
     <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34" t="s">
+      <c r="E2" s="40"/>
+      <c r="F2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34" t="s">
+      <c r="G2" s="40"/>
+      <c r="H2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="34">
+      <c r="I2" s="40">
         <v>8</v>
       </c>
       <c r="J2" s="3"/>
@@ -6806,9 +6746,9 @@
       <c r="AB2" s="4"/>
     </row>
     <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="29" t="s">
         <v>8</v>
       </c>
@@ -6821,8 +6761,8 @@
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -6844,11 +6784,11 @@
       <c r="AB3" s="4"/>
     </row>
     <row r="4" spans="1:28" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
-        <v>61</v>
+      <c r="A4" s="34" t="s">
+        <v>41</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>24</v>
@@ -6856,14 +6796,14 @@
       <c r="D4" s="25">
         <v>2</v>
       </c>
-      <c r="E4" s="38">
-        <f>SUM(D4:D6)</f>
-        <v>6</v>
+      <c r="E4" s="37">
+        <f>SUM(D4:D7)</f>
+        <v>8</v>
       </c>
       <c r="F4" s="25">
         <v>1.67</v>
       </c>
-      <c r="G4" s="41">
+      <c r="G4" s="37">
         <f>SUM(F4:F7)</f>
         <v>7.92</v>
       </c>
@@ -6890,9 +6830,9 @@
       <c r="AB4" s="4"/>
     </row>
     <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="36"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="24" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>24</v>
@@ -6900,11 +6840,11 @@
       <c r="D5" s="25">
         <v>2</v>
       </c>
-      <c r="E5" s="39"/>
+      <c r="E5" s="41"/>
       <c r="F5" s="25">
         <v>1.25</v>
       </c>
-      <c r="G5" s="42"/>
+      <c r="G5" s="38"/>
       <c r="H5" s="21" t="s">
         <v>10</v>
       </c>
@@ -6929,9 +6869,9 @@
       <c r="AB5" s="4"/>
     </row>
     <row r="6" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="6" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>24</v>
@@ -6939,11 +6879,11 @@
       <c r="D6" s="25">
         <v>2</v>
       </c>
-      <c r="E6" s="39"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="25">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G6" s="42"/>
+      <c r="G6" s="38"/>
       <c r="H6" s="21" t="s">
         <v>10</v>
       </c>
@@ -6967,21 +6907,21 @@
       <c r="AB6" s="4"/>
     </row>
     <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="37"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="32" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="27">
         <v>2</v>
       </c>
-      <c r="E7" s="40"/>
+      <c r="E7" s="42"/>
       <c r="F7" s="27">
         <v>2.8</v>
       </c>
-      <c r="G7" s="43"/>
+      <c r="G7" s="39"/>
       <c r="H7" s="21" t="s">
         <v>10</v>
       </c>
@@ -7005,43 +6945,69 @@
       <c r="AB7" s="4"/>
     </row>
     <row r="8" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="35"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="41">
+      <c r="A8" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="27">
+        <v>1</v>
+      </c>
+      <c r="E8" s="37">
         <f>SUM(D8:D10)</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="41">
+        <v>7</v>
+      </c>
+      <c r="F8" s="27">
+        <v>0.67</v>
+      </c>
+      <c r="G8" s="37">
         <f>SUM(F8:F10)</f>
-        <v>0</v>
+        <v>7.95</v>
       </c>
       <c r="H8" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="36"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="42"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="27">
+        <v>3</v>
+      </c>
+      <c r="E9" s="38"/>
+      <c r="F9" s="27">
+        <v>3.48</v>
+      </c>
+      <c r="G9" s="38"/>
       <c r="H9" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="37"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="43"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="25">
+        <v>3</v>
+      </c>
+      <c r="E10" s="39"/>
+      <c r="F10" s="25">
+        <v>3.8</v>
+      </c>
+      <c r="G10" s="39"/>
       <c r="H10" s="21" t="s">
         <v>10</v>
       </c>
@@ -7078,9 +7044,6 @@
   </conditionalFormatting>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="E4" formulaRange="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -7092,8 +7055,8 @@
   <dimension ref="A1:S1048576"/>
   <sheetViews>
     <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <pane ySplit="4" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7114,20 +7077,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="45"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45" t="s">
+      <c r="A1" s="44"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
@@ -7186,40 +7149,40 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="46">
+      <c r="A3" s="45">
         <v>8</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" s="47" t="s">
+      <c r="C3" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="47" t="s">
+      <c r="L3" s="46" t="s">
         <v>16</v>
       </c>
       <c r="M3" s="8"/>
@@ -7231,18 +7194,18 @@
       <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
@@ -7257,35 +7220,35 @@
       </c>
       <c r="B5" s="13">
         <f>SUM('Sprint Backlog'!D:D)</f>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C5" s="14">
         <f t="shared" ref="C5:J5" si="1">B5-$B9</f>
-        <v>7</v>
+        <v>13.125</v>
       </c>
       <c r="D5" s="14">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>11.25</v>
       </c>
       <c r="E5" s="14">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>9.375</v>
       </c>
       <c r="F5" s="14">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="G5" s="14">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5.625</v>
       </c>
       <c r="H5" s="14">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="I5" s="14">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.875</v>
       </c>
       <c r="J5" s="14">
         <f t="shared" si="1"/>
@@ -7293,11 +7256,11 @@
       </c>
       <c r="K5" s="14">
         <f>SUM(C5:J5)</f>
-        <v>28</v>
+        <v>52.5</v>
       </c>
       <c r="L5" s="14">
         <f>K5/A$3</f>
-        <v>3.5</v>
+        <v>6.5625</v>
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
@@ -7313,47 +7276,47 @@
       </c>
       <c r="B6" s="13">
         <f>B5</f>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C6" s="14">
         <f t="shared" ref="C6:J6" si="2">B6-C9</f>
-        <v>5.17</v>
+        <v>14.33</v>
       </c>
       <c r="D6" s="14">
         <f t="shared" si="2"/>
-        <v>0.51999999999999957</v>
+        <v>12.129999999999999</v>
       </c>
       <c r="E6" s="14">
         <f t="shared" si="2"/>
-        <v>-4.1700000000000008</v>
+        <v>8.8899999999999988</v>
       </c>
       <c r="F6" s="14">
         <f t="shared" si="2"/>
-        <v>-7.2900000000000009</v>
+        <v>5.7299999999999986</v>
       </c>
       <c r="G6" s="14">
         <f t="shared" si="2"/>
-        <v>-12.09</v>
+        <v>1.629999999999999</v>
       </c>
       <c r="H6" s="14">
         <f t="shared" si="2"/>
-        <v>-14.09</v>
+        <v>0.32999999999999896</v>
       </c>
       <c r="I6" s="14">
         <f t="shared" si="2"/>
-        <v>-16.09</v>
+        <v>-0.87000000000000099</v>
       </c>
       <c r="J6" s="14">
         <f t="shared" si="2"/>
-        <v>-20.09</v>
+        <v>-0.87000000000000099</v>
       </c>
       <c r="K6" s="14">
         <f>SUM(C6:J6)</f>
-        <v>-68.13000000000001</v>
+        <v>41.299999999999983</v>
       </c>
       <c r="L6" s="14">
         <f>K6/A$3</f>
-        <v>-8.5162500000000012</v>
+        <v>5.1624999999999979</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -7391,18 +7354,18 @@
       <c r="B8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -7417,47 +7380,47 @@
       </c>
       <c r="B9" s="17">
         <f>B5/A3</f>
-        <v>1</v>
+        <v>1.875</v>
       </c>
       <c r="C9" s="17">
         <f t="shared" ref="C9:K9" si="3">SUM(C10:C12)</f>
-        <v>2.83</v>
+        <v>0.67</v>
       </c>
       <c r="D9" s="17">
         <f t="shared" si="3"/>
-        <v>4.6500000000000004</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E9" s="17">
         <f t="shared" si="3"/>
-        <v>4.6900000000000004</v>
+        <v>3.24</v>
       </c>
       <c r="F9" s="17">
         <f t="shared" si="3"/>
-        <v>3.12</v>
+        <v>3.16</v>
       </c>
       <c r="G9" s="17">
         <f t="shared" si="3"/>
-        <v>4.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H9" s="17">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="I9" s="17">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="J9" s="17">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K9" s="17">
         <f t="shared" si="3"/>
-        <v>28.090000000000003</v>
+        <v>15.870000000000001</v>
       </c>
       <c r="L9" s="17">
         <f>K9/A$3</f>
-        <v>3.5112500000000004</v>
+        <v>1.9837500000000001</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
@@ -7473,47 +7436,47 @@
       </c>
       <c r="B10" s="19">
         <f>'Danilo Burndown'!B9</f>
-        <v>2.7250000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="C10" s="14">
         <f>'Danilo Burndown'!C9</f>
-        <v>2.83</v>
+        <v>0.67</v>
       </c>
       <c r="D10" s="14">
         <f>'Danilo Burndown'!D9</f>
-        <v>3.4</v>
+        <v>0.95</v>
       </c>
       <c r="E10" s="14">
         <f>'Danilo Burndown'!E9</f>
-        <v>2.4900000000000002</v>
+        <v>1.04</v>
       </c>
       <c r="F10" s="14">
         <f>'Danilo Burndown'!F9</f>
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="G10" s="14">
         <f>'Danilo Burndown'!G9</f>
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H10" s="14">
         <f>'Danilo Burndown'!H9</f>
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="I10" s="14">
         <f>'Danilo Burndown'!I9</f>
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="J10" s="14">
         <f>'Danilo Burndown'!J9</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K10" s="14">
         <f>SUM(C10:J10)</f>
-        <v>20.170000000000002</v>
+        <v>7.95</v>
       </c>
       <c r="L10" s="14">
         <f>K10/A$3</f>
-        <v>2.5212500000000002</v>
+        <v>0.99375000000000002</v>
       </c>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
@@ -7585,7 +7548,7 @@
       </c>
       <c r="B12" s="20">
         <f>'Breno Burndown'!B9</f>
-        <v>1.4375</v>
+        <v>0.75</v>
       </c>
       <c r="C12" s="14">
         <f>'Alexandre Burndown'!C9</f>
@@ -8686,9 +8649,9 @@
   </sheetPr>
   <dimension ref="A1:S1048576"/>
   <sheetViews>
-    <sheetView windowProtection="1" showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView windowProtection="1" showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8702,20 +8665,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="45"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45" t="s">
+      <c r="A1" s="44"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
@@ -8774,40 +8737,40 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="46">
+      <c r="A3" s="45">
         <v>8</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" s="47" t="s">
+      <c r="C3" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="47" t="s">
+      <c r="L3" s="46" t="s">
         <v>16</v>
       </c>
       <c r="M3" s="8"/>
@@ -8819,18 +8782,18 @@
       <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
@@ -8844,35 +8807,35 @@
         <v>17</v>
       </c>
       <c r="B5" s="13">
-        <v>21.8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="14">
         <f t="shared" ref="C5:J5" si="1">B5-$B9</f>
-        <v>19.074999999999999</v>
+        <v>6.125</v>
       </c>
       <c r="D5" s="14">
         <f t="shared" si="1"/>
-        <v>16.349999999999998</v>
+        <v>5.25</v>
       </c>
       <c r="E5" s="14">
         <f t="shared" si="1"/>
-        <v>13.624999999999998</v>
+        <v>4.375</v>
       </c>
       <c r="F5" s="14">
         <f t="shared" si="1"/>
-        <v>10.899999999999999</v>
+        <v>3.5</v>
       </c>
       <c r="G5" s="14">
         <f t="shared" si="1"/>
-        <v>8.1749999999999989</v>
+        <v>2.625</v>
       </c>
       <c r="H5" s="14">
         <f t="shared" si="1"/>
-        <v>5.4499999999999993</v>
+        <v>1.75</v>
       </c>
       <c r="I5" s="14">
         <f t="shared" si="1"/>
-        <v>2.7249999999999992</v>
+        <v>0.875</v>
       </c>
       <c r="J5" s="14">
         <f t="shared" si="1"/>
@@ -8880,11 +8843,11 @@
       </c>
       <c r="K5" s="14">
         <f>SUM(C5:J5)</f>
-        <v>76.3</v>
+        <v>24.5</v>
       </c>
       <c r="L5" s="14">
         <f>K5/A$3</f>
-        <v>9.5374999999999996</v>
+        <v>3.0625</v>
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
@@ -8900,47 +8863,47 @@
       </c>
       <c r="B6" s="13">
         <f>B5</f>
-        <v>21.8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="14">
         <f t="shared" ref="C6:J6" si="2">B6-C9</f>
-        <v>18.97</v>
+        <v>6.33</v>
       </c>
       <c r="D6" s="14">
         <f t="shared" si="2"/>
-        <v>15.569999999999999</v>
+        <v>5.38</v>
       </c>
       <c r="E6" s="14">
         <f t="shared" si="2"/>
-        <v>13.079999999999998</v>
+        <v>4.34</v>
       </c>
       <c r="F6" s="14">
         <f t="shared" si="2"/>
-        <v>11.629999999999999</v>
+        <v>2.8499999999999996</v>
       </c>
       <c r="G6" s="14">
         <f t="shared" si="2"/>
-        <v>9.629999999999999</v>
+        <v>1.5499999999999996</v>
       </c>
       <c r="H6" s="14">
         <f t="shared" si="2"/>
-        <v>7.629999999999999</v>
+        <v>0.24999999999999956</v>
       </c>
       <c r="I6" s="14">
         <f t="shared" si="2"/>
-        <v>5.629999999999999</v>
+        <v>-0.9500000000000004</v>
       </c>
       <c r="J6" s="14">
         <f t="shared" si="2"/>
-        <v>1.629999999999999</v>
+        <v>-0.9500000000000004</v>
       </c>
       <c r="K6" s="14">
         <f>SUM(C6:J6)</f>
-        <v>83.769999999999982</v>
+        <v>18.8</v>
       </c>
       <c r="L6" s="14">
         <f>K6/A$3</f>
-        <v>10.471249999999998</v>
+        <v>2.35</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -8978,18 +8941,18 @@
       <c r="B8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -9004,47 +8967,47 @@
       </c>
       <c r="B9" s="17">
         <f>B5/A3</f>
-        <v>2.7250000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="C9" s="17">
         <f t="shared" ref="C9:E9" si="3">SUM(C10:C16)</f>
-        <v>2.83</v>
+        <v>0.67</v>
       </c>
       <c r="D9" s="17">
         <f t="shared" si="3"/>
-        <v>3.4</v>
+        <v>0.95</v>
       </c>
       <c r="E9" s="17">
         <f t="shared" si="3"/>
-        <v>2.4900000000000002</v>
+        <v>1.04</v>
       </c>
       <c r="F9" s="17">
         <f t="shared" ref="F9:L9" si="4">SUM(F10:F23)</f>
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="G9" s="17">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H9" s="17">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="I9" s="17">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="J9" s="17">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K9" s="17">
         <f t="shared" si="4"/>
-        <v>20.170000000000002</v>
+        <v>7.95</v>
       </c>
       <c r="L9" s="17">
         <f t="shared" si="4"/>
-        <v>2.5212500000000002</v>
+        <v>0.99375000000000002</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
@@ -9055,12 +9018,12 @@
       <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="56"/>
+      <c r="A10" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="55"/>
       <c r="C10" s="14">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -9070,43 +9033,47 @@
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14">
-        <f t="shared" ref="K10:K23" si="5">SUM(C10:J10)</f>
-        <v>0.75</v>
+        <f t="shared" ref="K10:K12" si="5">SUM(C10:J10)</f>
+        <v>0.67</v>
       </c>
       <c r="L10" s="14">
-        <f t="shared" ref="L10:L23" si="6">K10/A$3</f>
-        <v>9.375E-2</v>
+        <f t="shared" ref="L10:L12" si="6">K10/A$3</f>
+        <v>8.3750000000000005E-2</v>
       </c>
       <c r="M10" s="8"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="14">
-        <v>0.83</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="A11" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="50"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14">
+        <v>0.95</v>
+      </c>
+      <c r="E11" s="14">
+        <v>1.04</v>
+      </c>
+      <c r="F11" s="14">
+        <v>1.49</v>
+      </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14">
         <f t="shared" si="5"/>
-        <v>0.83</v>
+        <v>3.48</v>
       </c>
       <c r="L11" s="14">
         <f t="shared" si="6"/>
-        <v>0.10375</v>
+        <v>0.435</v>
       </c>
       <c r="M11" s="8"/>
       <c r="N11" s="30"/>
@@ -9117,27 +9084,31 @@
       <c r="S11" s="8"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="51"/>
+      <c r="A12" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="50"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
-      <c r="E12" s="14">
-        <v>0.4</v>
-      </c>
+      <c r="E12" s="14"/>
       <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
+      <c r="G12" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="H12" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="I12" s="14">
+        <v>1.2</v>
+      </c>
       <c r="J12" s="14"/>
       <c r="K12" s="14">
         <f t="shared" si="5"/>
-        <v>0.4</v>
+        <v>3.8</v>
       </c>
       <c r="L12" s="14">
         <f t="shared" si="6"/>
-        <v>0.05</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="M12" s="8"/>
       <c r="N12" s="30"/>
@@ -9148,13 +9119,9 @@
       <c r="S12" s="8"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="14">
-        <v>1.25</v>
-      </c>
+      <c r="A13" s="49"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -9162,45 +9129,29 @@
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
-      <c r="K13" s="14">
-        <f t="shared" si="5"/>
-        <v>1.25</v>
-      </c>
-      <c r="L13" s="14">
-        <f t="shared" si="6"/>
-        <v>0.15625</v>
-      </c>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
       <c r="M13" s="8"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
     </row>
     <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="51"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
-      <c r="E14" s="14">
-        <v>0.5</v>
-      </c>
+      <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
-      <c r="K14" s="14">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="L14" s="14">
-        <f t="shared" si="6"/>
-        <v>6.25E-2</v>
-      </c>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
       <c r="M14" s="8"/>
       <c r="N14" s="31"/>
       <c r="O14" s="31"/>
@@ -9210,192 +9161,120 @@
       <c r="S14" s="8"/>
     </row>
     <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="51"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="14">
-        <v>1.59</v>
-      </c>
+      <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
-      <c r="K15" s="14">
-        <f t="shared" si="5"/>
-        <v>1.59</v>
-      </c>
-      <c r="L15" s="14">
-        <f t="shared" si="6"/>
-        <v>0.19875000000000001</v>
-      </c>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
       <c r="M15" s="8"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
     </row>
     <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="53"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="14"/>
-      <c r="D16" s="14">
-        <v>3.4</v>
-      </c>
+      <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
-      <c r="K16" s="14">
-        <f t="shared" si="5"/>
-        <v>3.4</v>
-      </c>
-      <c r="L16" s="14">
-        <f t="shared" si="6"/>
-        <v>0.42499999999999999</v>
-      </c>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
       <c r="M16" s="8"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="56"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
-      <c r="F17" s="14">
-        <v>0.7</v>
-      </c>
+      <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
-      <c r="K17" s="14">
-        <f t="shared" si="5"/>
-        <v>0.7</v>
-      </c>
-      <c r="L17" s="14">
-        <f t="shared" si="6"/>
-        <v>8.7499999999999994E-2</v>
-      </c>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="51"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
-      <c r="F18" s="14">
-        <v>0.75</v>
-      </c>
+      <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
-      <c r="K18" s="14">
-        <f t="shared" si="5"/>
-        <v>0.75</v>
-      </c>
-      <c r="L18" s="14">
-        <f t="shared" si="6"/>
-        <v>9.375E-2</v>
-      </c>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="51"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
-      <c r="G19" s="14">
-        <v>2</v>
-      </c>
+      <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
-      <c r="K19" s="14">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="L19" s="14">
-        <f t="shared" si="6"/>
-        <v>0.25</v>
-      </c>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="54"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
-      <c r="H20" s="14">
-        <v>2</v>
-      </c>
+      <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
-      <c r="K20" s="14">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="L20" s="14">
-        <f t="shared" si="6"/>
-        <v>0.25</v>
-      </c>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="51"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="14">
-        <v>2</v>
-      </c>
+      <c r="I21" s="14"/>
       <c r="J21" s="14"/>
-      <c r="K21" s="14">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="L21" s="14">
-        <f t="shared" si="6"/>
-        <v>0.25</v>
-      </c>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="51"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
@@ -9403,23 +9282,13 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
-      <c r="J22" s="14">
-        <v>2</v>
-      </c>
-      <c r="K22" s="14">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="L22" s="14">
-        <f t="shared" si="6"/>
-        <v>0.25</v>
-      </c>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="53"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -9427,25 +9296,17 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
-      <c r="J23" s="14">
-        <v>2</v>
-      </c>
-      <c r="K23" s="14">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="L23" s="14">
-        <f t="shared" si="6"/>
-        <v>0.25</v>
-      </c>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="50"/>
-      <c r="B24" s="51"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="50"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="52"/>
-      <c r="B25" s="53"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="52"/>
     </row>
     <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9663,9 +9524,9 @@
   </sheetPr>
   <dimension ref="A1:S1048574"/>
   <sheetViews>
-    <sheetView windowProtection="1" showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H5:H6"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9679,20 +9540,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="45"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45" t="s">
+      <c r="A1" s="44"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
@@ -9751,40 +9612,40 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="46">
+      <c r="A3" s="45">
         <v>8</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="J3" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="K3" s="47" t="s">
+      <c r="C3" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="47" t="s">
+      <c r="L3" s="46" t="s">
         <v>16</v>
       </c>
       <c r="M3" s="8"/>
@@ -9796,18 +9657,18 @@
       <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
@@ -9821,35 +9682,35 @@
         <v>17</v>
       </c>
       <c r="B5" s="13">
-        <v>11.5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="14">
         <f t="shared" ref="C5:J5" si="1">B5-$B9</f>
-        <v>10.0625</v>
+        <v>5.25</v>
       </c>
       <c r="D5" s="14">
         <f t="shared" si="1"/>
-        <v>8.625</v>
+        <v>4.5</v>
       </c>
       <c r="E5" s="14">
         <f t="shared" si="1"/>
-        <v>7.1875</v>
+        <v>3.75</v>
       </c>
       <c r="F5" s="14">
         <f t="shared" si="1"/>
-        <v>5.75</v>
+        <v>3</v>
       </c>
       <c r="G5" s="14">
         <f t="shared" si="1"/>
-        <v>4.3125</v>
+        <v>2.25</v>
       </c>
       <c r="H5" s="14">
         <f t="shared" si="1"/>
-        <v>2.875</v>
+        <v>1.5</v>
       </c>
       <c r="I5" s="14">
         <f t="shared" si="1"/>
-        <v>1.4375</v>
+        <v>0.75</v>
       </c>
       <c r="J5" s="14">
         <f t="shared" si="1"/>
@@ -9857,11 +9718,11 @@
       </c>
       <c r="K5" s="14">
         <f>SUM(C5:J5)</f>
-        <v>40.25</v>
+        <v>21</v>
       </c>
       <c r="L5" s="14">
         <f>K5/A$3</f>
-        <v>5.03125</v>
+        <v>2.625</v>
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
@@ -9877,47 +9738,47 @@
       </c>
       <c r="B6" s="13">
         <f>B5</f>
-        <v>11.5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="14">
         <f t="shared" ref="C6:J6" si="2">B6-C9</f>
-        <v>11.5</v>
+        <v>6</v>
       </c>
       <c r="D6" s="14">
         <f t="shared" si="2"/>
-        <v>10.25</v>
+        <v>4.75</v>
       </c>
       <c r="E6" s="14">
         <f t="shared" si="2"/>
-        <v>8.0500000000000007</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F6" s="14">
         <f t="shared" si="2"/>
-        <v>6.3800000000000008</v>
+        <v>0.87999999999999989</v>
       </c>
       <c r="G6" s="14">
         <f t="shared" si="2"/>
-        <v>3.580000000000001</v>
+        <v>-1.92</v>
       </c>
       <c r="H6" s="14">
         <f t="shared" si="2"/>
-        <v>3.580000000000001</v>
+        <v>-1.92</v>
       </c>
       <c r="I6" s="14">
         <f t="shared" si="2"/>
-        <v>3.580000000000001</v>
+        <v>-1.92</v>
       </c>
       <c r="J6" s="14">
         <f t="shared" si="2"/>
-        <v>3.580000000000001</v>
+        <v>-1.92</v>
       </c>
       <c r="K6" s="14">
         <f>SUM(C6:J6)</f>
-        <v>50.499999999999993</v>
+        <v>6.5</v>
       </c>
       <c r="L6" s="14">
         <f>K6/A$3</f>
-        <v>6.3124999999999991</v>
+        <v>0.8125</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -9955,18 +9816,18 @@
       <c r="B8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -9981,7 +9842,7 @@
       </c>
       <c r="B9" s="17">
         <f>B5/A3</f>
-        <v>1.4375</v>
+        <v>0.75</v>
       </c>
       <c r="C9" s="17">
         <f t="shared" ref="C9:L9" si="3">SUM(C10:C28)</f>
@@ -10032,10 +9893,10 @@
       <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:19" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="54"/>
+      <c r="A10" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="53"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -10063,10 +9924,10 @@
       <c r="S10" s="8"/>
     </row>
     <row r="11" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="51"/>
+      <c r="A11" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="50"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14">
         <v>1.25</v>
@@ -10094,10 +9955,10 @@
       <c r="S11" s="8"/>
     </row>
     <row r="12" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="51"/>
+      <c r="A12" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="50"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14">
@@ -10125,10 +9986,10 @@
       <c r="S12" s="8"/>
     </row>
     <row r="13" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="53"/>
+      <c r="A13" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="52"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
@@ -10228,20 +10089,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="45"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45" t="s">
+      <c r="A1" s="44"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
@@ -10300,40 +10161,40 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="46">
+      <c r="A3" s="45">
         <v>8</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="47" t="s">
+      <c r="D3" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="47" t="s">
+      <c r="L3" s="46" t="s">
         <v>16</v>
       </c>
       <c r="M3" s="8"/>
@@ -10345,18 +10206,18 @@
       <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
@@ -10505,18 +10366,18 @@
       <c r="B8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -10582,8 +10443,8 @@
       <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:19" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="53"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -10609,8 +10470,8 @@
       <c r="S10" s="8"/>
     </row>
     <row r="11" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="58"/>
-      <c r="B11" s="58"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="57"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -10636,8 +10497,8 @@
       <c r="S11" s="8"/>
     </row>
     <row r="12" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="58"/>
-      <c r="B12" s="58"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
@@ -10663,8 +10524,8 @@
       <c r="S12" s="8"/>
     </row>
     <row r="13" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
